--- a/WebApplication1/Forms/resimDegistirmeTest.xlsx
+++ b/WebApplication1/Forms/resimDegistirmeTest.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -164,6 +165,55 @@
         <a:xfrm>
           <a:off x="2446020" y="2026920"/>
           <a:ext cx="975360" cy="975360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>162335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3025140" cy="1259615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -440,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -461,4 +511,19 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>